--- a/2014年第1季.xlsx
+++ b/2014年第1季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,67 +569,907 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2,961,823</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-47,177</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-1,209,449</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-883,340</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1,187,438</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-1,102,521</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>470,820</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1,045,251</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>13,830,623</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-3.88</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-2.37</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>9,612,495</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>38,736,588</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>3,703,439</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>1,022,763</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>583,249</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>632,840</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>-659,914</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>38,660</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>-254,810</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>8,303,146</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>9,971,276</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>22,237,884</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>246,060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>246,060</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>119,341</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>125,510</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>107,723</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-35,454</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>101,939</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>191,726</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>504,630</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,971,928</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>356,714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>301,314</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8,362</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20,290</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-30,918</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4,388</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-31,023</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>374,196</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1,408,204</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2,996,832</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5,507,154</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2,051,731</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,499,161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,555,589</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1,886,184</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-563,678</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>275,295</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1,442,263</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4,623,663</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>6,563,082</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>30,752,748</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6,348,330</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1,006,657</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>446,337</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>572,691</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>324,405</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-805,793</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>564,635</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-94,436</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>19,809,488</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16,177,370</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>41,096,466</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7,701,334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,207,338</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>664,451</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>858,491</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>57,356</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-36,042</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-89,417</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>45,412</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>5,607,112</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1,574,941</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>20,382,434</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>178,004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>96,532</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>61,728</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65,064</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>25,437</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-2,327</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>24,128</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>111,008</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>12,510</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>875,782</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12,127,615</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,381,208</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>781,440</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>957,334</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4,553,769</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-361,808</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>185,469</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>4,474,486</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>18,697,717</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>6,437,428</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>38,313,617</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-19,035</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-19,239</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-24,053</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-480</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-24,053</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>125,308</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-0.97</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>89,091</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2,128,230</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,667,026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>500,163</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>203,536</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>249,975</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>528,416</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-815,449</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>7,339</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>296,035</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>6,035,630</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>12,446,953</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>21,280,502</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>979,617</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>118,788</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11,470</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9,642</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>68,506</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-38,570</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5,154</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>48,500</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1,944,248</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>773,714</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>3,184,281</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4,160,946</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>882,790</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>570,716</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>633,999</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>887,951</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-83,884</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>108,525</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>674,525</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16,225,024</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>13,663,336</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39,473,426</t>
         </is>
       </c>
     </row>

--- a/2014年第1季.xlsx
+++ b/2014年第1季.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
           <t>總資產</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>單季EPS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +567,11 @@
           <t>38,736,588</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -630,6 +640,11 @@
       <c r="N3" t="inlineStr">
         <is>
           <t>22,237,884</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>無</t>
         </is>
       </c>
     </row>
